--- a/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
+++ b/database_creation/rawdata/aircraftproperties/Aircraft Databank v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78783719-C680-43C1-A53C-71A5A8E046BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4DE9A-E8E1-486B-AB06-7D43D2478022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="1" xr2:uid="{B2B150D8-E64E-4875-9280-D2B2D82F52FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Table" sheetId="1" r:id="rId1"/>
@@ -3665,8 +3665,8 @@
   <dimension ref="A1:P191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75"/>
